--- a/report.xlsx
+++ b/report.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="115">
   <si>
     <t>Tickers</t>
   </si>
@@ -31,6 +31,12 @@
     <t>SRSI</t>
   </si>
   <si>
+    <t>TEMA</t>
+  </si>
+  <si>
+    <t>BES</t>
+  </si>
+  <si>
     <t>AEFES.IS</t>
   </si>
   <si>
@@ -347,6 +353,12 @@
   </si>
   <si>
     <t>Unknown</t>
+  </si>
+  <si>
+    <t>['Unknown']</t>
+  </si>
+  <si>
+    <t>[False]</t>
   </si>
 </sst>
 </file>
@@ -725,13 +737,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F106"/>
+  <dimension ref="A1:H106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -747,2093 +759,2729 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2">
-        <v>22.73999977111816</v>
+        <v>22.39999961853027</v>
       </c>
       <c r="D2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>112</v>
+      </c>
+      <c r="G2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>5.420000076293945</v>
+        <v>5.340000152587891</v>
       </c>
       <c r="D3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>112</v>
+      </c>
+      <c r="G3" t="s">
+        <v>112</v>
+      </c>
+      <c r="H3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>7.940000057220459</v>
-      </c>
-      <c r="D4" t="s">
-        <v>110</v>
+        <v>7.75</v>
+      </c>
+      <c r="D4" t="b">
+        <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>112</v>
+      </c>
+      <c r="G4" t="s">
+        <v>112</v>
+      </c>
+      <c r="H4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>15.78999996185303</v>
+        <v>15.3100004196167</v>
       </c>
       <c r="D5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F5" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>112</v>
+      </c>
+      <c r="G5" t="s">
+        <v>112</v>
+      </c>
+      <c r="H5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>66</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6">
-        <v>12.10999965667725</v>
+        <v>11.88000011444092</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>112</v>
+      </c>
+      <c r="G6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>67</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C7">
-        <v>8.579999923706055</v>
+        <v>8.449999809265137</v>
       </c>
       <c r="D7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>112</v>
+      </c>
+      <c r="G7" t="s">
+        <v>112</v>
+      </c>
+      <c r="H7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>68</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8">
-        <v>1.559999942779541</v>
-      </c>
-      <c r="D8" t="b">
-        <v>0</v>
+        <v>1.539999961853027</v>
+      </c>
+      <c r="D8" t="s">
+        <v>112</v>
       </c>
       <c r="E8" t="b">
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>112</v>
+      </c>
+      <c r="G8" t="s">
+        <v>112</v>
+      </c>
+      <c r="H8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>70</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C9">
-        <v>21.13999938964844</v>
-      </c>
-      <c r="D9" t="s">
-        <v>110</v>
-      </c>
-      <c r="E9" t="s">
-        <v>110</v>
+        <v>20.92000007629395</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" t="b">
+        <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>112</v>
+      </c>
+      <c r="G9" t="s">
+        <v>112</v>
+      </c>
+      <c r="H9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>69</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C10">
-        <v>15.25</v>
-      </c>
-      <c r="D10" t="s">
-        <v>110</v>
+        <v>15.94999980926514</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>112</v>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>71</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F11" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>112</v>
+      </c>
+      <c r="G11" t="s">
+        <v>112</v>
+      </c>
+      <c r="H11" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>72</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C12">
-        <v>9</v>
+        <v>8.970000267028809</v>
       </c>
       <c r="D12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E12" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F12" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>112</v>
+      </c>
+      <c r="G12" t="s">
+        <v>112</v>
+      </c>
+      <c r="H12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>4</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C13">
-        <v>29.31999969482422</v>
-      </c>
-      <c r="D13" t="s">
-        <v>110</v>
+        <v>29.54000091552734</v>
+      </c>
+      <c r="D13" t="b">
+        <v>1</v>
       </c>
       <c r="E13" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F13" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>112</v>
+      </c>
+      <c r="G13" t="s">
+        <v>112</v>
+      </c>
+      <c r="H13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>64</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C14">
-        <v>57.34999847412109</v>
-      </c>
-      <c r="D14" t="s">
-        <v>110</v>
+        <v>56.25</v>
+      </c>
+      <c r="D14" t="b">
+        <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F14" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>112</v>
+      </c>
+      <c r="G14" t="s">
+        <v>112</v>
+      </c>
+      <c r="H14" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>62</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C15">
-        <v>40.41999816894531</v>
-      </c>
-      <c r="D15" t="s">
-        <v>110</v>
-      </c>
-      <c r="E15" t="b">
+        <v>40</v>
+      </c>
+      <c r="D15" t="b">
         <v>1</v>
       </c>
+      <c r="E15" t="s">
+        <v>112</v>
+      </c>
       <c r="F15" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>112</v>
+      </c>
+      <c r="G15" t="s">
+        <v>112</v>
+      </c>
+      <c r="H15" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>63</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C16">
-        <v>41.63999938964844</v>
+        <v>41.54000091552734</v>
       </c>
       <c r="D16" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E16" t="b">
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>112</v>
+      </c>
+      <c r="G16" t="s">
+        <v>112</v>
+      </c>
+      <c r="H16" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C17">
-        <v>15.22999954223633</v>
-      </c>
-      <c r="D17" t="b">
-        <v>0</v>
+        <v>15.02999973297119</v>
+      </c>
+      <c r="D17" t="s">
+        <v>112</v>
       </c>
       <c r="E17" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F17" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>112</v>
+      </c>
+      <c r="G17" t="s">
+        <v>112</v>
+      </c>
+      <c r="H17" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C18">
-        <v>13.48999977111816</v>
-      </c>
-      <c r="D18" t="s">
-        <v>110</v>
-      </c>
-      <c r="E18" t="s">
-        <v>110</v>
+        <v>13.26000022888184</v>
+      </c>
+      <c r="D18" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" t="b">
+        <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>112</v>
+      </c>
+      <c r="G18" t="s">
+        <v>112</v>
+      </c>
+      <c r="H18" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C19">
-        <v>56.20000076293945</v>
-      </c>
-      <c r="D19" t="s">
-        <v>110</v>
+        <v>56.54999923706055</v>
+      </c>
+      <c r="D19" t="b">
+        <v>1</v>
       </c>
       <c r="E19" t="b">
         <v>1</v>
       </c>
       <c r="F19" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>112</v>
+      </c>
+      <c r="G19" t="s">
+        <v>112</v>
+      </c>
+      <c r="H19" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>60</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C20">
-        <v>835.0999755859375</v>
-      </c>
-      <c r="D20" t="b">
-        <v>0</v>
-      </c>
-      <c r="E20" t="s">
-        <v>110</v>
+        <v>838.9000244140625</v>
+      </c>
+      <c r="D20" t="s">
+        <v>112</v>
+      </c>
+      <c r="E20" t="b">
+        <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>112</v>
+      </c>
+      <c r="G20" t="s">
+        <v>112</v>
+      </c>
+      <c r="H20" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
         <v>45</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C21">
-        <v>63.40000152587891</v>
+        <v>62.04999923706055</v>
       </c>
       <c r="D21" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E21" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F21" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>112</v>
+      </c>
+      <c r="G21" t="s">
+        <v>112</v>
+      </c>
+      <c r="H21" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1">
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C22">
-        <v>12.11999988555908</v>
+        <v>12.15999984741211</v>
       </c>
       <c r="D22" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E22" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F22" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>112</v>
+      </c>
+      <c r="G22" t="s">
+        <v>112</v>
+      </c>
+      <c r="H22" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1">
         <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C23">
-        <v>21.18000030517578</v>
-      </c>
-      <c r="D23" t="s">
-        <v>110</v>
+        <v>20.79999923706055</v>
+      </c>
+      <c r="D23" t="b">
+        <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F23" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>112</v>
+      </c>
+      <c r="G23" t="s">
+        <v>112</v>
+      </c>
+      <c r="H23" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1">
         <v>46</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C24">
-        <v>23.78000068664551</v>
-      </c>
-      <c r="D24" t="s">
-        <v>110</v>
+        <v>23.20000076293945</v>
+      </c>
+      <c r="D24" t="b">
+        <v>0</v>
       </c>
       <c r="E24" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F24" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>112</v>
+      </c>
+      <c r="G24" t="s">
+        <v>112</v>
+      </c>
+      <c r="H24" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1">
         <v>47</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C25">
-        <v>3.720000028610229</v>
+        <v>3.619999885559082</v>
       </c>
       <c r="D25" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E25" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F25" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>112</v>
+      </c>
+      <c r="G25" t="s">
+        <v>112</v>
+      </c>
+      <c r="H25" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1">
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C26">
-        <v>79.80000305175781</v>
+        <v>80</v>
       </c>
       <c r="D26" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E26" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F26" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>112</v>
+      </c>
+      <c r="G26" t="s">
+        <v>112</v>
+      </c>
+      <c r="H26" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1">
         <v>48</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C27">
-        <v>13.46000003814697</v>
+        <v>13.28999996185303</v>
       </c>
       <c r="D27" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E27" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F27" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>112</v>
+      </c>
+      <c r="G27" t="s">
+        <v>112</v>
+      </c>
+      <c r="H27" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1">
         <v>12</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C28">
-        <v>22.44000053405762</v>
+        <v>21.86000061035156</v>
       </c>
       <c r="D28" t="s">
-        <v>110</v>
-      </c>
-      <c r="E28" t="b">
-        <v>1</v>
+        <v>112</v>
+      </c>
+      <c r="E28" t="s">
+        <v>112</v>
       </c>
       <c r="F28" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>112</v>
+      </c>
+      <c r="G28" t="s">
+        <v>112</v>
+      </c>
+      <c r="H28" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1">
         <v>13</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C29">
-        <v>216.1000061035156</v>
-      </c>
-      <c r="D29" t="b">
-        <v>0</v>
+        <v>213.5</v>
+      </c>
+      <c r="D29" t="s">
+        <v>112</v>
       </c>
       <c r="E29" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F29" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>112</v>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1">
         <v>49</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C30">
-        <v>24.76000022888184</v>
+        <v>25.28000068664551</v>
       </c>
       <c r="D30" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E30" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F30" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>112</v>
+      </c>
+      <c r="G30" t="s">
+        <v>112</v>
+      </c>
+      <c r="H30" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1">
         <v>22</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C31">
-        <v>22.47999954223633</v>
-      </c>
-      <c r="D31" t="s">
-        <v>110</v>
+        <v>22.92000007629395</v>
+      </c>
+      <c r="D31" t="b">
+        <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F31" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>112</v>
+      </c>
+      <c r="G31" t="s">
+        <v>112</v>
+      </c>
+      <c r="H31" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1">
         <v>23</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C32">
-        <v>2.950000047683716</v>
-      </c>
-      <c r="D32" t="s">
-        <v>110</v>
-      </c>
-      <c r="E32" t="s">
-        <v>110</v>
+        <v>2.890000104904175</v>
+      </c>
+      <c r="D32" t="b">
+        <v>0</v>
+      </c>
+      <c r="E32" t="b">
+        <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>112</v>
+      </c>
+      <c r="G32" t="s">
+        <v>112</v>
+      </c>
+      <c r="H32" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1">
         <v>24</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C33">
-        <v>5.920000076293945</v>
+        <v>5.909999847412109</v>
       </c>
       <c r="D33" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E33" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F33" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>112</v>
+      </c>
+      <c r="G33" t="s">
+        <v>112</v>
+      </c>
+      <c r="H33" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1">
         <v>25</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C34">
-        <v>38.88000106811523</v>
-      </c>
-      <c r="D34" t="b">
-        <v>0</v>
+        <v>38.7400016784668</v>
+      </c>
+      <c r="D34" t="s">
+        <v>112</v>
       </c>
       <c r="E34" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F34" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>112</v>
+      </c>
+      <c r="G34" t="s">
+        <v>112</v>
+      </c>
+      <c r="H34" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1">
         <v>50</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C35">
-        <v>1254</v>
-      </c>
-      <c r="D35" t="s">
-        <v>110</v>
+        <v>1245.599975585938</v>
+      </c>
+      <c r="D35" t="b">
+        <v>0</v>
       </c>
       <c r="E35" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F35" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>112</v>
+      </c>
+      <c r="G35" t="s">
+        <v>112</v>
+      </c>
+      <c r="H35" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1">
         <v>26</v>
       </c>
       <c r="B36" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C36">
-        <v>2.109999895095825</v>
-      </c>
-      <c r="D36" t="b">
-        <v>0</v>
+        <v>2.049999952316284</v>
+      </c>
+      <c r="D36" t="s">
+        <v>112</v>
       </c>
       <c r="E36" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F36" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>112</v>
+      </c>
+      <c r="G36" t="s">
+        <v>112</v>
+      </c>
+      <c r="H36" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1">
         <v>27</v>
       </c>
       <c r="B37" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C37">
-        <v>10.60999965667725</v>
+        <v>10.63000011444092</v>
       </c>
       <c r="D37" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E37" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F37" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
+        <v>112</v>
+      </c>
+      <c r="G37" t="s">
+        <v>112</v>
+      </c>
+      <c r="H37" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1">
         <v>28</v>
       </c>
       <c r="B38" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C38">
-        <v>9.239999771118164</v>
+        <v>9.010000228881836</v>
       </c>
       <c r="D38" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E38" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F38" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>112</v>
+      </c>
+      <c r="G38" t="s">
+        <v>112</v>
+      </c>
+      <c r="H38" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1">
         <v>29</v>
       </c>
       <c r="B39" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C39">
-        <v>97.59999847412109</v>
+        <v>104.5</v>
       </c>
       <c r="D39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F39" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>112</v>
+      </c>
+      <c r="G39" t="b">
+        <v>1</v>
+      </c>
+      <c r="H39" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1">
         <v>51</v>
       </c>
       <c r="B40" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C40">
-        <v>18.23999977111816</v>
-      </c>
-      <c r="D40" t="s">
-        <v>110</v>
+        <v>18.13999938964844</v>
+      </c>
+      <c r="D40" t="b">
+        <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F40" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>112</v>
+      </c>
+      <c r="G40" t="s">
+        <v>112</v>
+      </c>
+      <c r="H40" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1">
         <v>30</v>
       </c>
       <c r="B41" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C41">
-        <v>173.8000030517578</v>
+        <v>167.3000030517578</v>
       </c>
       <c r="D41" t="s">
-        <v>110</v>
-      </c>
-      <c r="E41" t="s">
-        <v>110</v>
+        <v>112</v>
+      </c>
+      <c r="E41" t="b">
+        <v>1</v>
       </c>
       <c r="F41" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>112</v>
+      </c>
+      <c r="G41" t="s">
+        <v>112</v>
+      </c>
+      <c r="H41" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1">
         <v>31</v>
       </c>
       <c r="B42" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C42">
-        <v>8.380000114440918</v>
-      </c>
-      <c r="D42" t="s">
-        <v>110</v>
+        <v>8.199999809265137</v>
+      </c>
+      <c r="D42" t="b">
+        <v>0</v>
       </c>
       <c r="E42" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F42" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>112</v>
+      </c>
+      <c r="G42" t="s">
+        <v>112</v>
+      </c>
+      <c r="H42" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1">
         <v>32</v>
       </c>
       <c r="B43" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C43">
-        <v>6.940000057220459</v>
-      </c>
-      <c r="D43" t="s">
-        <v>110</v>
-      </c>
-      <c r="E43" t="s">
-        <v>110</v>
+        <v>6.760000228881836</v>
+      </c>
+      <c r="D43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E43" t="b">
+        <v>1</v>
       </c>
       <c r="F43" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>112</v>
+      </c>
+      <c r="G43" t="s">
+        <v>112</v>
+      </c>
+      <c r="H43" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1">
         <v>33</v>
       </c>
       <c r="B44" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C44">
-        <v>5.820000171661377</v>
+        <v>5.739999771118164</v>
       </c>
       <c r="D44" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E44" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F44" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>112</v>
+      </c>
+      <c r="G44" t="s">
+        <v>112</v>
+      </c>
+      <c r="H44" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1">
         <v>52</v>
       </c>
       <c r="B45" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C45">
-        <v>1.970000028610229</v>
-      </c>
-      <c r="D45" t="b">
-        <v>1</v>
+        <v>1.909999966621399</v>
+      </c>
+      <c r="D45" t="s">
+        <v>112</v>
       </c>
       <c r="E45" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F45" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+        <v>112</v>
+      </c>
+      <c r="G45" t="s">
+        <v>112</v>
+      </c>
+      <c r="H45" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1">
         <v>61</v>
       </c>
       <c r="B46" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C46">
         <v>3.759999990463257</v>
       </c>
       <c r="D46" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E46" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F46" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>112</v>
+      </c>
+      <c r="G46" t="s">
+        <v>112</v>
+      </c>
+      <c r="H46" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1">
         <v>34</v>
       </c>
       <c r="B47" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C47">
-        <v>58.09999847412109</v>
-      </c>
-      <c r="D47" t="b">
-        <v>1</v>
+        <v>54.34999847412109</v>
+      </c>
+      <c r="D47" t="s">
+        <v>112</v>
       </c>
       <c r="E47" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F47" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>112</v>
+      </c>
+      <c r="G47" t="s">
+        <v>112</v>
+      </c>
+      <c r="H47" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1">
         <v>73</v>
       </c>
       <c r="B48" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D48" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E48" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F48" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>112</v>
+      </c>
+      <c r="G48" t="s">
+        <v>112</v>
+      </c>
+      <c r="H48" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1">
         <v>35</v>
       </c>
       <c r="B49" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C49">
-        <v>5.300000190734863</v>
-      </c>
-      <c r="D49" t="s">
-        <v>110</v>
+        <v>5.079999923706055</v>
+      </c>
+      <c r="D49" t="b">
+        <v>0</v>
       </c>
       <c r="E49" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F49" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>112</v>
+      </c>
+      <c r="G49" t="s">
+        <v>112</v>
+      </c>
+      <c r="H49" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1">
         <v>36</v>
       </c>
       <c r="B50" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C50">
-        <v>8.189999580383301</v>
-      </c>
-      <c r="D50" t="s">
-        <v>110</v>
+        <v>8</v>
+      </c>
+      <c r="D50" t="b">
+        <v>0</v>
       </c>
       <c r="E50" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F50" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>112</v>
+      </c>
+      <c r="G50" t="s">
+        <v>112</v>
+      </c>
+      <c r="H50" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1">
         <v>37</v>
       </c>
       <c r="B51" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C51">
-        <v>2.619999885559082</v>
+        <v>2.559999942779541</v>
       </c>
       <c r="D51" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E51" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F51" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>112</v>
+      </c>
+      <c r="G51" t="s">
+        <v>112</v>
+      </c>
+      <c r="H51" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1">
         <v>39</v>
       </c>
       <c r="B52" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C52">
-        <v>6.429999828338623</v>
+        <v>6.300000190734863</v>
       </c>
       <c r="D52" t="s">
-        <v>110</v>
-      </c>
-      <c r="E52" t="s">
-        <v>110</v>
+        <v>112</v>
+      </c>
+      <c r="E52" t="b">
+        <v>1</v>
       </c>
       <c r="F52" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+        <v>112</v>
+      </c>
+      <c r="G52" t="s">
+        <v>112</v>
+      </c>
+      <c r="H52" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1">
         <v>38</v>
       </c>
       <c r="B53" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C53">
-        <v>12.77000045776367</v>
-      </c>
-      <c r="D53" t="s">
-        <v>110</v>
+        <v>12.42000007629395</v>
+      </c>
+      <c r="D53" t="b">
+        <v>0</v>
       </c>
       <c r="E53" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F53" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>112</v>
+      </c>
+      <c r="G53" t="s">
+        <v>112</v>
+      </c>
+      <c r="H53" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1">
         <v>21</v>
       </c>
       <c r="B54" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C54">
-        <v>5.300000190734863</v>
+        <v>5.21999979019165</v>
       </c>
       <c r="D54" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E54" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F54" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>112</v>
+      </c>
+      <c r="G54" t="s">
+        <v>112</v>
+      </c>
+      <c r="H54" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1">
         <v>40</v>
       </c>
       <c r="B55" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C55">
-        <v>11.52999973297119</v>
+        <v>11.51000022888184</v>
       </c>
       <c r="D55" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E55" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F55" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>112</v>
+      </c>
+      <c r="G55" t="s">
+        <v>112</v>
+      </c>
+      <c r="H55" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1">
         <v>41</v>
       </c>
       <c r="B56" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C56">
-        <v>3.069999933242798</v>
+        <v>3.019999980926514</v>
       </c>
       <c r="D56" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E56" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F56" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>112</v>
+      </c>
+      <c r="G56" t="s">
+        <v>112</v>
+      </c>
+      <c r="H56" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1">
         <v>53</v>
       </c>
       <c r="B57" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C57">
-        <v>2.009999990463257</v>
+        <v>2</v>
       </c>
       <c r="D57" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E57" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F57" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>112</v>
+      </c>
+      <c r="G57" t="s">
+        <v>112</v>
+      </c>
+      <c r="H57" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1">
         <v>54</v>
       </c>
       <c r="B58" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C58">
         <v>14.18000030517578</v>
       </c>
-      <c r="D58" t="b">
-        <v>0</v>
+      <c r="D58" t="s">
+        <v>112</v>
       </c>
       <c r="E58" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F58" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>112</v>
+      </c>
+      <c r="G58" t="b">
+        <v>1</v>
+      </c>
+      <c r="H58" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1">
         <v>55</v>
       </c>
       <c r="B59" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C59">
-        <v>32.31999969482422</v>
+        <v>32.84000015258789</v>
       </c>
       <c r="D59" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E59" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F59" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>112</v>
+      </c>
+      <c r="G59" t="s">
+        <v>112</v>
+      </c>
+      <c r="H59" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1">
         <v>56</v>
       </c>
       <c r="B60" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C60">
         <v>3.680000066757202</v>
       </c>
       <c r="D60" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E60" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F60" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>112</v>
+      </c>
+      <c r="G60" t="s">
+        <v>112</v>
+      </c>
+      <c r="H60" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1">
         <v>57</v>
       </c>
       <c r="B61" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C61">
-        <v>54.84999847412109</v>
+        <v>55.20000076293945</v>
       </c>
       <c r="D61" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E61" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F61" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>112</v>
+      </c>
+      <c r="G61" t="s">
+        <v>112</v>
+      </c>
+      <c r="H61" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1">
         <v>58</v>
       </c>
       <c r="B62" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C62">
-        <v>19.20999908447266</v>
+        <v>18.78000068664551</v>
       </c>
       <c r="D62" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E62" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F62" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>112</v>
+      </c>
+      <c r="G62" t="s">
+        <v>112</v>
+      </c>
+      <c r="H62" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1">
         <v>59</v>
       </c>
       <c r="B63" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C63">
-        <v>4.510000228881836</v>
+        <v>4.590000152587891</v>
       </c>
       <c r="D63" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E63" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F63" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>112</v>
+      </c>
+      <c r="G63" t="s">
+        <v>112</v>
+      </c>
+      <c r="H63" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1">
         <v>43</v>
       </c>
       <c r="B64" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C64">
-        <v>21.18000030517578</v>
-      </c>
-      <c r="D64" t="b">
-        <v>1</v>
+        <v>20.79999923706055</v>
+      </c>
+      <c r="D64" t="s">
+        <v>112</v>
       </c>
       <c r="E64" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F64" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>112</v>
+      </c>
+      <c r="G64" t="s">
+        <v>112</v>
+      </c>
+      <c r="H64" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1">
         <v>42</v>
       </c>
       <c r="B65" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C65">
-        <v>20.55999946594238</v>
-      </c>
-      <c r="D65" t="s">
-        <v>110</v>
+        <v>20.07999992370605</v>
+      </c>
+      <c r="D65" t="b">
+        <v>0</v>
       </c>
       <c r="E65" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F65" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>112</v>
+      </c>
+      <c r="G65" t="s">
+        <v>112</v>
+      </c>
+      <c r="H65" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1">
         <v>20</v>
       </c>
       <c r="B66" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C66">
-        <v>15.10999965667725</v>
+        <v>14.84000015258789</v>
       </c>
       <c r="D66" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E66" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F66" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>112</v>
+      </c>
+      <c r="G66" t="s">
+        <v>112</v>
+      </c>
+      <c r="H66" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1">
         <v>44</v>
       </c>
       <c r="B67" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C67">
-        <v>123.0999984741211</v>
-      </c>
-      <c r="D67" t="s">
-        <v>110</v>
+        <v>119.9000015258789</v>
+      </c>
+      <c r="D67" t="b">
+        <v>0</v>
       </c>
       <c r="E67" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F67" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>112</v>
+      </c>
+      <c r="G67" t="s">
+        <v>112</v>
+      </c>
+      <c r="H67" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1">
         <v>74</v>
       </c>
       <c r="B68" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C68">
-        <v>6.75</v>
-      </c>
-      <c r="D68" t="s">
-        <v>110</v>
+        <v>6.809999942779541</v>
+      </c>
+      <c r="D68" t="b">
+        <v>1</v>
       </c>
       <c r="E68" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F68" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>112</v>
+      </c>
+      <c r="G68" t="s">
+        <v>112</v>
+      </c>
+      <c r="H68" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1">
         <v>75</v>
       </c>
       <c r="B69" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C69">
-        <v>36.70000076293945</v>
-      </c>
-      <c r="D69" t="s">
-        <v>110</v>
+        <v>35.5</v>
+      </c>
+      <c r="D69" t="b">
+        <v>0</v>
       </c>
       <c r="E69" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F69" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>112</v>
+      </c>
+      <c r="G69" t="s">
+        <v>112</v>
+      </c>
+      <c r="H69" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1">
         <v>76</v>
       </c>
       <c r="B70" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C70">
-        <v>57.09999847412109</v>
-      </c>
-      <c r="D70" t="b">
-        <v>1</v>
+        <v>56.70000076293945</v>
+      </c>
+      <c r="D70" t="s">
+        <v>112</v>
       </c>
       <c r="E70" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F70" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+        <v>112</v>
+      </c>
+      <c r="G70" t="s">
+        <v>112</v>
+      </c>
+      <c r="H70" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1">
         <v>77</v>
       </c>
       <c r="B71" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C71">
-        <v>33.11999893188477</v>
+        <v>32.91999816894531</v>
       </c>
       <c r="D71" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E71" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F71" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>112</v>
+      </c>
+      <c r="G71" t="s">
+        <v>112</v>
+      </c>
+      <c r="H71" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1">
         <v>78</v>
       </c>
       <c r="B72" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C72">
-        <v>21.95999908447266</v>
-      </c>
-      <c r="D72" t="s">
-        <v>110</v>
+        <v>22.47999954223633</v>
+      </c>
+      <c r="D72" t="b">
+        <v>1</v>
       </c>
       <c r="E72" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F72" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>112</v>
+      </c>
+      <c r="G72" t="s">
+        <v>112</v>
+      </c>
+      <c r="H72" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1">
         <v>79</v>
       </c>
       <c r="B73" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C73">
-        <v>21.39999961853027</v>
+        <v>20.70000076293945</v>
       </c>
       <c r="D73" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E73" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F73" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>112</v>
+      </c>
+      <c r="G73" t="s">
+        <v>112</v>
+      </c>
+      <c r="H73" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1">
         <v>80</v>
       </c>
       <c r="B74" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C74">
-        <v>4.53000020980835</v>
+        <v>4.349999904632568</v>
       </c>
       <c r="D74" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E74" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F74" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>112</v>
+      </c>
+      <c r="G74" t="s">
+        <v>112</v>
+      </c>
+      <c r="H74" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1">
         <v>81</v>
       </c>
       <c r="B75" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C75">
-        <v>1.940000057220459</v>
-      </c>
-      <c r="D75" t="s">
-        <v>110</v>
+        <v>1.899999976158142</v>
+      </c>
+      <c r="D75" t="b">
+        <v>0</v>
       </c>
       <c r="E75" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F75" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>112</v>
+      </c>
+      <c r="G75" t="s">
+        <v>112</v>
+      </c>
+      <c r="H75" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1">
         <v>82</v>
       </c>
       <c r="B76" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C76">
-        <v>297.6000061035156</v>
+        <v>285.6000061035156</v>
       </c>
       <c r="D76" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E76" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F76" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>112</v>
+      </c>
+      <c r="G76" t="s">
+        <v>112</v>
+      </c>
+      <c r="H76" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1">
         <v>83</v>
       </c>
       <c r="B77" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C77">
-        <v>5.480000019073486</v>
+        <v>5.389999866485596</v>
       </c>
       <c r="D77" t="s">
-        <v>110</v>
-      </c>
-      <c r="E77" t="b">
-        <v>1</v>
+        <v>112</v>
+      </c>
+      <c r="E77" t="s">
+        <v>112</v>
       </c>
       <c r="F77" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>112</v>
+      </c>
+      <c r="G77" t="s">
+        <v>112</v>
+      </c>
+      <c r="H77" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1">
         <v>84</v>
       </c>
       <c r="B78" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C78">
-        <v>79.15000152587891</v>
-      </c>
-      <c r="D78" t="s">
-        <v>110</v>
+        <v>77.25</v>
+      </c>
+      <c r="D78" t="b">
+        <v>0</v>
       </c>
       <c r="E78" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F78" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>112</v>
+      </c>
+      <c r="G78" t="s">
+        <v>112</v>
+      </c>
+      <c r="H78" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1">
         <v>85</v>
       </c>
       <c r="B79" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C79">
-        <v>9.329999923706055</v>
-      </c>
-      <c r="D79" t="s">
-        <v>110</v>
+        <v>9.229999542236328</v>
+      </c>
+      <c r="D79" t="b">
+        <v>0</v>
       </c>
       <c r="E79" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F79" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+        <v>112</v>
+      </c>
+      <c r="G79" t="s">
+        <v>112</v>
+      </c>
+      <c r="H79" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1">
         <v>86</v>
       </c>
       <c r="B80" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C80">
-        <v>30.8799991607666</v>
+        <v>29.31999969482422</v>
       </c>
       <c r="D80" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E80" t="b">
         <v>1</v>
       </c>
       <c r="F80" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>112</v>
+      </c>
+      <c r="G80" t="s">
+        <v>112</v>
+      </c>
+      <c r="H80" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1">
         <v>65</v>
       </c>
       <c r="B81" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C81">
-        <v>6.369999885559082</v>
-      </c>
-      <c r="D81" t="b">
-        <v>0</v>
+        <v>6.059999942779541</v>
+      </c>
+      <c r="D81" t="s">
+        <v>112</v>
       </c>
       <c r="E81" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F81" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>112</v>
+      </c>
+      <c r="G81" t="s">
+        <v>112</v>
+      </c>
+      <c r="H81" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1">
         <v>87</v>
       </c>
       <c r="B82" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C82">
-        <v>7.96999979019165</v>
+        <v>7.840000152587891</v>
       </c>
       <c r="D82" t="s">
-        <v>110</v>
-      </c>
-      <c r="E82" t="s">
-        <v>110</v>
+        <v>112</v>
+      </c>
+      <c r="E82" t="b">
+        <v>1</v>
       </c>
       <c r="F82" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>112</v>
+      </c>
+      <c r="G82" t="s">
+        <v>112</v>
+      </c>
+      <c r="H82" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1">
         <v>88</v>
       </c>
       <c r="B83" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C83">
-        <v>1.129999995231628</v>
+        <v>1.100000023841858</v>
       </c>
       <c r="D83" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E83" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F83" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>112</v>
+      </c>
+      <c r="G83" t="s">
+        <v>112</v>
+      </c>
+      <c r="H83" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1">
         <v>89</v>
       </c>
       <c r="B84" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D84" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E84" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F84" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+        <v>112</v>
+      </c>
+      <c r="G84" t="s">
+        <v>112</v>
+      </c>
+      <c r="H84" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1">
         <v>90</v>
       </c>
       <c r="B85" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C85">
-        <v>11.51000022888184</v>
+        <v>11.60000038146973</v>
       </c>
       <c r="D85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E85" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F85" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>112</v>
+      </c>
+      <c r="G85" t="s">
+        <v>112</v>
+      </c>
+      <c r="H85" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1">
         <v>91</v>
       </c>
       <c r="B86" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C86">
-        <v>8.329999923706055</v>
-      </c>
-      <c r="D86" t="s">
-        <v>110</v>
+        <v>8.229999542236328</v>
+      </c>
+      <c r="D86" t="b">
+        <v>0</v>
       </c>
       <c r="E86" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F86" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>112</v>
+      </c>
+      <c r="G86" t="s">
+        <v>112</v>
+      </c>
+      <c r="H86" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1">
         <v>92</v>
       </c>
       <c r="B87" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C87">
-        <v>26.92000007629395</v>
+        <v>26.20000076293945</v>
       </c>
       <c r="D87" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E87" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F87" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>112</v>
+      </c>
+      <c r="G87" t="s">
+        <v>112</v>
+      </c>
+      <c r="H87" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1">
         <v>18</v>
       </c>
       <c r="B88" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C88">
-        <v>17.06999969482422</v>
+        <v>17.04000091552734</v>
       </c>
       <c r="D88" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E88" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F88" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>112</v>
+      </c>
+      <c r="G88" t="s">
+        <v>112</v>
+      </c>
+      <c r="H88" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1">
         <v>19</v>
       </c>
       <c r="B89" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C89">
-        <v>14.55000019073486</v>
-      </c>
-      <c r="D89" t="b">
-        <v>0</v>
+        <v>14.27999973297119</v>
+      </c>
+      <c r="D89" t="s">
+        <v>112</v>
       </c>
       <c r="E89" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F89" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>112</v>
+      </c>
+      <c r="G89" t="s">
+        <v>112</v>
+      </c>
+      <c r="H89" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1">
         <v>93</v>
       </c>
       <c r="B90" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C90">
-        <v>15.5600004196167</v>
+        <v>15.36999988555908</v>
       </c>
       <c r="D90" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E90" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F90" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>112</v>
+      </c>
+      <c r="G90" t="s">
+        <v>112</v>
+      </c>
+      <c r="H90" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1">
         <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C91">
-        <v>18.09000015258789</v>
-      </c>
-      <c r="D91" t="b">
-        <v>0</v>
+        <v>17.45000076293945</v>
+      </c>
+      <c r="D91" t="s">
+        <v>112</v>
       </c>
       <c r="E91" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F91" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>112</v>
+      </c>
+      <c r="G91" t="s">
+        <v>112</v>
+      </c>
+      <c r="H91" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1">
         <v>95</v>
       </c>
       <c r="B92" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C92">
-        <v>30.6200008392334</v>
+        <v>30.23999977111816</v>
       </c>
       <c r="D92" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E92" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F92" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>112</v>
+      </c>
+      <c r="G92" t="s">
+        <v>112</v>
+      </c>
+      <c r="H92" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1">
         <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C93">
-        <v>3.640000104904175</v>
+        <v>3.630000114440918</v>
       </c>
       <c r="D93" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E93" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F93" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>112</v>
+      </c>
+      <c r="G93" t="b">
+        <v>1</v>
+      </c>
+      <c r="H93" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1">
         <v>97</v>
       </c>
       <c r="B94" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C94">
-        <v>3.210000038146973</v>
-      </c>
-      <c r="D94" t="b">
-        <v>0</v>
-      </c>
-      <c r="E94" t="s">
-        <v>110</v>
+        <v>3.119999885559082</v>
+      </c>
+      <c r="D94" t="s">
+        <v>112</v>
+      </c>
+      <c r="E94" t="b">
+        <v>1</v>
       </c>
       <c r="F94" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>112</v>
+      </c>
+      <c r="G94" t="s">
+        <v>112</v>
+      </c>
+      <c r="H94" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1">
         <v>98</v>
       </c>
       <c r="B95" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D95" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E95" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F95" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>112</v>
+      </c>
+      <c r="G95" t="s">
+        <v>112</v>
+      </c>
+      <c r="H95" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1">
         <v>99</v>
       </c>
       <c r="B96" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C96">
-        <v>1.340000033378601</v>
-      </c>
-      <c r="D96" t="s">
-        <v>110</v>
+        <v>1.309999942779541</v>
+      </c>
+      <c r="D96" t="b">
+        <v>0</v>
       </c>
       <c r="E96" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F96" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
+        <v>112</v>
+      </c>
+      <c r="G96" t="s">
+        <v>112</v>
+      </c>
+      <c r="H96" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1">
         <v>100</v>
       </c>
       <c r="B97" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C97">
-        <v>7.019999980926514</v>
-      </c>
-      <c r="D97" t="b">
-        <v>0</v>
+        <v>7</v>
+      </c>
+      <c r="D97" t="s">
+        <v>112</v>
       </c>
       <c r="E97" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F97" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+        <v>112</v>
+      </c>
+      <c r="G97" t="s">
+        <v>112</v>
+      </c>
+      <c r="H97" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1">
         <v>101</v>
       </c>
       <c r="B98" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C98">
-        <v>173.6000061035156</v>
-      </c>
-      <c r="D98" t="s">
-        <v>110</v>
+        <v>173</v>
+      </c>
+      <c r="D98" t="b">
+        <v>0</v>
       </c>
       <c r="E98" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F98" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>112</v>
+      </c>
+      <c r="G98" t="s">
+        <v>112</v>
+      </c>
+      <c r="H98" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1">
         <v>102</v>
       </c>
       <c r="B99" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C99">
-        <v>100.4000015258789</v>
+        <v>98.34999847412109</v>
       </c>
       <c r="D99" t="s">
-        <v>110</v>
-      </c>
-      <c r="E99" t="s">
-        <v>110</v>
+        <v>112</v>
+      </c>
+      <c r="E99" t="b">
+        <v>1</v>
       </c>
       <c r="F99" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
+        <v>112</v>
+      </c>
+      <c r="G99" t="s">
+        <v>112</v>
+      </c>
+      <c r="H99" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1">
         <v>103</v>
       </c>
       <c r="B100" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C100">
-        <v>21.92000007629395</v>
-      </c>
-      <c r="D100" t="s">
-        <v>110</v>
-      </c>
-      <c r="E100" t="s">
-        <v>110</v>
+        <v>21.42000007629395</v>
+      </c>
+      <c r="D100" t="b">
+        <v>0</v>
+      </c>
+      <c r="E100" t="b">
+        <v>1</v>
       </c>
       <c r="F100" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
+        <v>112</v>
+      </c>
+      <c r="G100" t="s">
+        <v>112</v>
+      </c>
+      <c r="H100" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1">
         <v>14</v>
       </c>
       <c r="B101" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C101">
-        <v>3.690000057220459</v>
-      </c>
-      <c r="D101" t="s">
-        <v>110</v>
+        <v>3.589999914169312</v>
+      </c>
+      <c r="D101" t="b">
+        <v>0</v>
       </c>
       <c r="E101" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F101" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>112</v>
+      </c>
+      <c r="G101" t="s">
+        <v>112</v>
+      </c>
+      <c r="H101" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1">
         <v>10</v>
       </c>
       <c r="B102" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C102">
-        <v>47.27999877929688</v>
-      </c>
-      <c r="D102" t="s">
-        <v>110</v>
+        <v>46.59999847412109</v>
+      </c>
+      <c r="D102" t="b">
+        <v>0</v>
       </c>
       <c r="E102" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F102" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>112</v>
+      </c>
+      <c r="G102" t="s">
+        <v>112</v>
+      </c>
+      <c r="H102" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1">
         <v>15</v>
       </c>
       <c r="B103" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C103">
-        <v>31.42000007629395</v>
+        <v>32</v>
       </c>
       <c r="D103" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E103" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F103" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>112</v>
+      </c>
+      <c r="G103" t="s">
+        <v>112</v>
+      </c>
+      <c r="H103" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1">
         <v>104</v>
       </c>
       <c r="B104" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C104">
-        <v>13.11999988555908</v>
-      </c>
-      <c r="D104" t="s">
-        <v>110</v>
+        <v>13</v>
+      </c>
+      <c r="D104" t="b">
+        <v>0</v>
       </c>
       <c r="E104" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F104" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
+        <v>112</v>
+      </c>
+      <c r="G104" t="s">
+        <v>112</v>
+      </c>
+      <c r="H104" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
       <c r="A105" s="1">
         <v>16</v>
       </c>
       <c r="B105" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C105">
-        <v>2.25</v>
+        <v>2.210000038146973</v>
       </c>
       <c r="D105" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E105" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F105" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6">
+        <v>112</v>
+      </c>
+      <c r="G105" t="s">
+        <v>112</v>
+      </c>
+      <c r="H105" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
       <c r="A106" s="1">
         <v>17</v>
       </c>
       <c r="B106" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C106">
-        <v>1.909999966621399</v>
+        <v>1.870000004768372</v>
       </c>
       <c r="D106" t="s">
-        <v>110</v>
-      </c>
-      <c r="E106" t="s">
-        <v>110</v>
+        <v>112</v>
+      </c>
+      <c r="E106" t="b">
+        <v>1</v>
       </c>
       <c r="F106" t="s">
-        <v>110</v>
+        <v>112</v>
+      </c>
+      <c r="G106" t="s">
+        <v>112</v>
+      </c>
+      <c r="H106" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -2861,6 +3509,14 @@
       <formula>False</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G106">
+    <cfRule type="cellIs" dxfId="0" priority="7" operator="equal">
+      <formula>True</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="8" operator="equal">
+      <formula>False</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>